--- a/output/ValueSet-TipoTaskVS.xlsx
+++ b/output/ValueSet-TipoTaskVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-17T12:30:07-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TipoTaskVS.xlsx
+++ b/output/ValueSet-TipoTaskVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-17T12:30:07-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
